--- a/public/static/templates/重量模板.xlsx
+++ b/public/static/templates/重量模板.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>原始重量（必填）</t>
   </si>
   <si>
     <t>导出商品详情（必填）</t>
-  </si>
-  <si>
-    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味5盒】</t>
   </si>
 </sst>
 </file>
@@ -682,7 +679,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1014,11 +1011,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.6666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5555555555556" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.7777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1027,12 +1024,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5">
-        <v>2.95</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/static/templates/重量模板.xlsx
+++ b/public/static/templates/重量模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +48,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1006,7 +1008,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/public/static/templates/重量模板.xlsx
+++ b/public/static/templates/重量模板.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>原始重量（必填）</t>
+    <t>重量（必填）</t>
   </si>
   <si>
-    <t>导出商品详情（必填）</t>
+    <t>重量商品详情（必填）</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>

--- a/public/static/templates/重量模板.xlsx
+++ b/public/static/templates/重量模板.xlsx
@@ -14,12 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>重量（必填）</t>
-  </si>
-  <si>
-    <t>重量商品详情（必填）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>原始重量（必填）</t>
+  </si>
+  <si>
+    <t>导出商品详情（必填）</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味5盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味6盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味7盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味8盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味9盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味10盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味11盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味12盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味13盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味14盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味15盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味16盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味17盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味18盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味19盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味20盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味21盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味22盒】</t>
   </si>
 </sst>
 </file>
@@ -48,14 +102,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -681,7 +733,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1005,19 +1057,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.5555555555556" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.7777777777778" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1026,8 +1078,148 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>5.95</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>8.95</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>9.95</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>10.95</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>12.95</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>13.95</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>14.95</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>15.95</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>16.95</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5">
+        <v>17.95</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5">
+        <v>18.95</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
